--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
@@ -4622,7 +4622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5149,7 +5149,7 @@
         <v>166</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="52" customFormat="1">

--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="369">
   <si>
     <t>Regular or Temporary</t>
   </si>
@@ -1157,9 +1157,6 @@
   </si>
   <si>
     <t>Address Line 23</t>
-  </si>
-  <si>
-    <t>Address Line 24</t>
   </si>
   <si>
     <t>UK</t>
@@ -4620,9 +4617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4813,7 +4810,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="52" customFormat="1">
@@ -4855,7 +4852,7 @@
         <v>166</v>
       </c>
       <c r="N6" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="52" customFormat="1">
@@ -4897,7 +4894,7 @@
         <v>166</v>
       </c>
       <c r="N7" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="52" customFormat="1">
@@ -4939,7 +4936,7 @@
         <v>166</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="52" customFormat="1">
@@ -4981,7 +4978,7 @@
         <v>166</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="52" customFormat="1">
@@ -5023,7 +5020,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="52" customFormat="1">
@@ -5065,7 +5062,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="52" customFormat="1">
@@ -5107,7 +5104,7 @@
         <v>166</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="52" customFormat="1">
@@ -5149,7 +5146,7 @@
         <v>166</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="52" customFormat="1">
@@ -5191,7 +5188,7 @@
         <v>166</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="52" customFormat="1">
@@ -5231,7 +5228,7 @@
         <v>166</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="52" customFormat="1">
@@ -5271,7 +5268,7 @@
         <v>166</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="52" customFormat="1">
@@ -5311,7 +5308,7 @@
         <v>166</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="52" customFormat="1">
@@ -5351,7 +5348,7 @@
         <v>166</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="52" customFormat="1">
@@ -5391,7 +5388,7 @@
         <v>166</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="52" customFormat="1">
@@ -5431,7 +5428,7 @@
         <v>166</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="52" customFormat="1">
@@ -5471,48 +5468,24 @@
         <v>166</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="52" customFormat="1">
       <c r="A22" s="72"/>
-      <c r="B22" s="73">
-        <v>40350</v>
-      </c>
+      <c r="B22" s="73"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="72">
-        <v>49895</v>
-      </c>
-      <c r="L22" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="N22" s="72" t="s">
-        <v>367</v>
-      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
     </row>
     <row r="23" spans="1:14" s="52" customFormat="1">
       <c r="E23" s="53"/>

--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755" tabRatio="794" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755" tabRatio="794" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index Page" sheetId="75" r:id="rId1"/>
@@ -562,9 +562,6 @@
     <t xml:space="preserve">Redwood shores </t>
   </si>
   <si>
-    <t xml:space="preserve">US </t>
-  </si>
-  <si>
     <t>Home Address</t>
   </si>
   <si>
@@ -1166,6 +1163,9 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="15" spans="1:3" s="89" customFormat="1" ht="12">
       <c r="B15" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1">
@@ -3219,7 +3219,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="3" spans="1:21" s="23" customFormat="1" ht="38.25">
       <c r="A3" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>105</v>
@@ -3339,13 +3339,13 @@
         <v>29</v>
       </c>
       <c r="N3" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="P3" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="Q3" s="29" t="s">
         <v>30</v>
@@ -3354,10 +3354,10 @@
         <v>31</v>
       </c>
       <c r="S3" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="116" t="s">
         <v>347</v>
-      </c>
-      <c r="T3" s="116" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="24" customFormat="1" ht="22.5">
@@ -3392,58 +3392,58 @@
     </row>
     <row r="5" spans="1:21" s="68" customFormat="1" ht="12">
       <c r="A5" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="C5" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="D5" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="E5" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="F5" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="97" t="s">
+      <c r="H5" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="I5" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="J5" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="K5" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="L5" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="M5" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="N5" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="O5" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="P5" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="P5" s="97" t="s">
+      <c r="Q5" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="Q5" s="97" t="s">
+      <c r="R5" s="97" t="s">
         <v>206</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>207</v>
       </c>
       <c r="S5" s="97"/>
       <c r="T5" s="97"/>
@@ -3469,22 +3469,22 @@
       </c>
       <c r="G6" s="72"/>
       <c r="H6" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K6" s="72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L6" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M6" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N6" s="72"/>
       <c r="O6" s="72" t="s">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L7" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M7" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N7" s="72"/>
       <c r="O7" s="72" t="s">
@@ -3582,22 +3582,22 @@
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L8" s="72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M8" s="72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72" t="s">
@@ -3639,22 +3639,22 @@
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L9" s="72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M9" s="72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N9" s="72" t="s">
         <v>159</v>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L10" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N10" s="72" t="s">
         <v>159</v>
@@ -3757,22 +3757,22 @@
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N11" s="72" t="s">
         <v>159</v>
@@ -3816,22 +3816,22 @@
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L12" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M12" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N12" s="72" t="s">
         <v>159</v>
@@ -3875,22 +3875,22 @@
       </c>
       <c r="G13" s="72"/>
       <c r="H13" s="72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J13" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N13" s="72" t="s">
         <v>159</v>
@@ -3934,22 +3934,22 @@
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M14" s="72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N14" s="72" t="s">
         <v>159</v>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="G15" s="72"/>
       <c r="H15" s="72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J15" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K15" s="72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L15" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M15" s="72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N15" s="72" t="s">
         <v>159</v>
@@ -4050,22 +4050,22 @@
       <c r="F16" s="115"/>
       <c r="G16" s="72"/>
       <c r="H16" s="72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N16" s="72" t="s">
         <v>159</v>
@@ -4107,22 +4107,22 @@
       <c r="F17" s="115"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K17" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L17" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M17" s="72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>159</v>
@@ -4164,22 +4164,22 @@
       <c r="F18" s="115"/>
       <c r="G18" s="72"/>
       <c r="H18" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K18" s="72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L18" s="72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M18" s="72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N18" s="72" t="s">
         <v>159</v>
@@ -4221,22 +4221,22 @@
       <c r="F19" s="115"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K19" s="72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L19" s="72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M19" s="72" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N19" s="72" t="s">
         <v>159</v>
@@ -4278,22 +4278,22 @@
       <c r="F20" s="115"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K20" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M20" s="72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N20" s="72" t="s">
         <v>159</v>
@@ -4335,22 +4335,22 @@
       <c r="F21" s="115"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J21" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K21" s="72" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L21" s="72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M21" s="72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N21" s="72" t="s">
         <v>159</v>
@@ -4392,22 +4392,22 @@
       <c r="F22" s="115"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N22" s="72" t="s">
         <v>159</v>
@@ -4449,22 +4449,22 @@
       <c r="F23" s="115"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J23" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L23" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N23" s="72" t="s">
         <v>159</v>
@@ -4505,22 +4505,22 @@
       <c r="F24" s="115"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J24" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K24" s="72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L24" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M24" s="72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N24" s="72" t="s">
         <v>159</v>
@@ -4561,22 +4561,22 @@
       <c r="F25" s="115"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K25" s="72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L25" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M25" s="72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N25" s="72" t="s">
         <v>159</v>
@@ -4617,9 +4617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4672,7 +4672,7 @@
         <v>131</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>17</v>
@@ -4702,7 +4702,7 @@
         <v>120</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="75" customFormat="1" ht="56.25">
@@ -4729,46 +4729,46 @@
     </row>
     <row r="4" spans="1:14" s="99" customFormat="1" ht="12">
       <c r="A4" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="98" t="s">
+      <c r="E4" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="F4" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="G4" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="H4" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="I4" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="98" t="s">
+      <c r="K4" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="L4" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="L4" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" s="98" t="s">
+      <c r="N4" s="98" t="s">
         <v>217</v>
-      </c>
-      <c r="N4" s="98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="74" customFormat="1" ht="12">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="72" t="s">
         <v>163</v>
@@ -4792,7 +4792,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I5" s="72" t="s">
         <v>164</v>
@@ -4810,7 +4810,7 @@
         <v>166</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="52" customFormat="1">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>163</v>
@@ -4834,7 +4834,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I6" s="72" t="s">
         <v>164</v>
@@ -4852,7 +4852,7 @@
         <v>166</v>
       </c>
       <c r="N6" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="52" customFormat="1">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="72" t="s">
         <v>163</v>
@@ -4876,7 +4876,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>164</v>
@@ -4894,19 +4894,19 @@
         <v>166</v>
       </c>
       <c r="N7" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="52" customFormat="1">
       <c r="A8" s="115">
-        <v>89079</v>
+        <v>89076</v>
       </c>
       <c r="B8" s="73">
         <v>40350</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>163</v>
@@ -4918,7 +4918,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>164</v>
@@ -4936,19 +4936,19 @@
         <v>166</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="52" customFormat="1">
       <c r="A9" s="115">
-        <v>89080</v>
+        <v>89077</v>
       </c>
       <c r="B9" s="73">
         <v>40350</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>163</v>
@@ -4960,7 +4960,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I9" s="72" t="s">
         <v>164</v>
@@ -4978,19 +4978,19 @@
         <v>166</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="52" customFormat="1">
       <c r="A10" s="115">
-        <v>89081</v>
+        <v>89078</v>
       </c>
       <c r="B10" s="73">
         <v>40350</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="72" t="s">
         <v>163</v>
@@ -5002,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="72" t="s">
         <v>164</v>
@@ -5020,19 +5020,19 @@
         <v>166</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="52" customFormat="1">
       <c r="A11" s="115">
-        <v>89082</v>
+        <v>89079</v>
       </c>
       <c r="B11" s="73">
         <v>40350</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="72" t="s">
         <v>163</v>
@@ -5044,7 +5044,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I11" s="72" t="s">
         <v>164</v>
@@ -5062,19 +5062,19 @@
         <v>166</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="52" customFormat="1">
       <c r="A12" s="115">
-        <v>89083</v>
+        <v>89080</v>
       </c>
       <c r="B12" s="73">
         <v>40350</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>163</v>
@@ -5086,7 +5086,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="72" t="s">
         <v>164</v>
@@ -5104,19 +5104,19 @@
         <v>166</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="52" customFormat="1">
       <c r="A13" s="115">
-        <v>89084</v>
+        <v>89081</v>
       </c>
       <c r="B13" s="73">
         <v>40350</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="72" t="s">
         <v>163</v>
@@ -5128,7 +5128,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I13" s="72" t="s">
         <v>164</v>
@@ -5146,19 +5146,19 @@
         <v>166</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="52" customFormat="1">
       <c r="A14" s="115">
-        <v>89085</v>
+        <v>89082</v>
       </c>
       <c r="B14" s="73">
         <v>40350</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="72" t="s">
         <v>163</v>
@@ -5170,7 +5170,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I14" s="72" t="s">
         <v>164</v>
@@ -5188,17 +5188,19 @@
         <v>166</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="52" customFormat="1">
-      <c r="A15" s="72"/>
+      <c r="A15" s="115">
+        <v>89083</v>
+      </c>
       <c r="B15" s="73">
         <v>40350</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>163</v>
@@ -5210,7 +5212,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I15" s="72" t="s">
         <v>164</v>
@@ -5228,17 +5230,19 @@
         <v>166</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="52" customFormat="1">
-      <c r="A16" s="72"/>
+      <c r="A16" s="115">
+        <v>89084</v>
+      </c>
       <c r="B16" s="73">
         <v>40350</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="72" t="s">
         <v>163</v>
@@ -5250,7 +5254,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I16" s="72" t="s">
         <v>164</v>
@@ -5268,17 +5272,19 @@
         <v>166</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="52" customFormat="1">
-      <c r="A17" s="72"/>
+      <c r="A17" s="115">
+        <v>89085</v>
+      </c>
       <c r="B17" s="73">
         <v>40350</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="72" t="s">
         <v>163</v>
@@ -5290,7 +5296,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I17" s="72" t="s">
         <v>164</v>
@@ -5308,7 +5314,7 @@
         <v>166</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="52" customFormat="1">
@@ -5318,7 +5324,7 @@
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="72" t="s">
         <v>163</v>
@@ -5330,7 +5336,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I18" s="72" t="s">
         <v>164</v>
@@ -5348,7 +5354,7 @@
         <v>166</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="52" customFormat="1">
@@ -5358,7 +5364,7 @@
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>163</v>
@@ -5370,7 +5376,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I19" s="72" t="s">
         <v>164</v>
@@ -5388,7 +5394,7 @@
         <v>166</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="52" customFormat="1">
@@ -5398,7 +5404,7 @@
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="72" t="s">
         <v>163</v>
@@ -5410,7 +5416,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I20" s="72" t="s">
         <v>164</v>
@@ -5428,7 +5434,7 @@
         <v>166</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="52" customFormat="1">
@@ -5438,7 +5444,7 @@
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="72" t="s">
         <v>163</v>
@@ -5450,7 +5456,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I21" s="72" t="s">
         <v>164</v>
@@ -5468,7 +5474,7 @@
         <v>166</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="52" customFormat="1">
@@ -9028,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9081,13 +9087,13 @@
         <v>134</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>37</v>
@@ -9120,31 +9126,31 @@
     </row>
     <row r="5" spans="1:9" s="101" customFormat="1" ht="12">
       <c r="A5" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="D5" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="100" t="s">
+      <c r="F5" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="G5" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="H5" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="I5" s="100" t="s">
         <v>226</v>
-      </c>
-      <c r="I5" s="100" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="68" customFormat="1" ht="12">
@@ -9152,19 +9158,19 @@
         <v>89076</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E6" s="72">
         <v>650</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="72"/>
       <c r="H6" s="73">
@@ -9177,19 +9183,19 @@
         <v>89077</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D7" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E7" s="72">
         <v>650</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="72"/>
       <c r="H7" s="73">
@@ -9202,19 +9208,19 @@
         <v>89078</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E8" s="72">
         <v>650</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="73">
@@ -9227,19 +9233,19 @@
         <v>89079</v>
       </c>
       <c r="B9" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D9" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E9" s="72">
         <v>650</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="73">
@@ -9252,19 +9258,19 @@
         <v>89080</v>
       </c>
       <c r="B10" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D10" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E10" s="72">
         <v>650</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="73">
@@ -9277,19 +9283,19 @@
         <v>89081</v>
       </c>
       <c r="B11" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D11" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E11" s="72">
         <v>650</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73">
@@ -9302,19 +9308,19 @@
         <v>89082</v>
       </c>
       <c r="B12" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D12" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E12" s="72">
         <v>650</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="73">
@@ -9327,19 +9333,19 @@
         <v>89083</v>
       </c>
       <c r="B13" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D13" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E13" s="72">
         <v>650</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="72"/>
       <c r="H13" s="73">
@@ -9352,19 +9358,19 @@
         <v>89084</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D14" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E14" s="72">
         <v>650</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="73">
@@ -9377,19 +9383,19 @@
         <v>89085</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E15" s="72">
         <v>650</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="72"/>
       <c r="H15" s="73">
@@ -9400,19 +9406,19 @@
     <row r="16" spans="1:9">
       <c r="A16" s="70"/>
       <c r="B16" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D16" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E16" s="72">
         <v>650</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="72"/>
       <c r="H16" s="73">
@@ -9423,19 +9429,19 @@
     <row r="17" spans="1:9">
       <c r="A17" s="70"/>
       <c r="B17" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D17" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E17" s="72">
         <v>650</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="72"/>
       <c r="H17" s="73">
@@ -9446,19 +9452,19 @@
     <row r="18" spans="1:9">
       <c r="A18" s="70"/>
       <c r="B18" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D18" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E18" s="72">
         <v>650</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" s="72"/>
       <c r="H18" s="73">
@@ -9469,19 +9475,19 @@
     <row r="19" spans="1:9">
       <c r="A19" s="70"/>
       <c r="B19" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D19" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E19" s="72">
         <v>650</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="72"/>
       <c r="H19" s="73">
@@ -9492,19 +9498,19 @@
     <row r="20" spans="1:9">
       <c r="A20" s="70"/>
       <c r="B20" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D20" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E20" s="72">
         <v>650</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="73">
@@ -9515,19 +9521,19 @@
     <row r="21" spans="1:9">
       <c r="A21" s="70"/>
       <c r="B21" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>170</v>
-      </c>
       <c r="D21" s="72" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E21" s="72">
         <v>650</v>
       </c>
       <c r="F21" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="72"/>
       <c r="H21" s="73">
@@ -9595,10 +9601,10 @@
         <v>134</v>
       </c>
       <c r="B3" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>243</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>244</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>50</v>
@@ -9619,27 +9625,27 @@
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
       <c r="F4" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="103" customFormat="1" ht="12">
       <c r="A5" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="E5" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="F5" s="102" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="58" customFormat="1" ht="12">
@@ -9647,13 +9653,13 @@
         <v>89076</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="73">
         <v>40350</v>
@@ -9665,13 +9671,13 @@
         <v>89077</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="73">
         <v>40350</v>
@@ -9683,13 +9689,13 @@
         <v>89078</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="73">
         <v>40350</v>
@@ -9701,13 +9707,13 @@
         <v>89079</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="73">
         <v>40350</v>
@@ -9719,13 +9725,13 @@
         <v>89080</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="73">
         <v>40350</v>
@@ -9737,13 +9743,13 @@
         <v>89081</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="73">
         <v>40350</v>
@@ -9755,13 +9761,13 @@
         <v>89082</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="73">
         <v>40350</v>
@@ -9773,13 +9779,13 @@
         <v>89083</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="73">
         <v>40350</v>
@@ -9791,13 +9797,13 @@
         <v>89084</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="73">
         <v>40350</v>
@@ -9809,13 +9815,13 @@
         <v>89085</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="73">
         <v>40350</v>
@@ -9825,13 +9831,13 @@
     <row r="16" spans="1:6">
       <c r="A16" s="72"/>
       <c r="B16" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="73">
         <v>40350</v>
@@ -9841,13 +9847,13 @@
     <row r="17" spans="1:6">
       <c r="A17" s="72"/>
       <c r="B17" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="73">
         <v>40350</v>
@@ -9857,13 +9863,13 @@
     <row r="18" spans="1:6">
       <c r="A18" s="72"/>
       <c r="B18" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="73">
         <v>40350</v>
@@ -9873,13 +9879,13 @@
     <row r="19" spans="1:6">
       <c r="A19" s="72"/>
       <c r="B19" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="73">
         <v>40350</v>
@@ -9889,13 +9895,13 @@
     <row r="20" spans="1:6">
       <c r="A20" s="72"/>
       <c r="B20" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="73">
         <v>40350</v>
@@ -9905,13 +9911,13 @@
     <row r="21" spans="1:6">
       <c r="A21" s="72"/>
       <c r="B21" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="73">
         <v>40350</v>
@@ -9921,13 +9927,13 @@
     <row r="22" spans="1:6">
       <c r="A22" s="72"/>
       <c r="B22" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="73">
         <v>40350</v>
@@ -9937,13 +9943,13 @@
     <row r="23" spans="1:6">
       <c r="A23" s="72"/>
       <c r="B23" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="73">
         <v>40350</v>
@@ -9984,7 +9990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -10088,7 +10094,7 @@
         <v>137</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>139</v>
@@ -10097,31 +10103,31 @@
         <v>140</v>
       </c>
       <c r="F3" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="110" t="s">
-        <v>292</v>
-      </c>
-      <c r="H3" s="110" t="s">
-        <v>262</v>
-      </c>
       <c r="I3" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="K3" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="L3" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="M3" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="N3" s="110" t="s">
         <v>268</v>
-      </c>
-      <c r="N3" s="110" t="s">
-        <v>269</v>
       </c>
       <c r="O3" s="110" t="s">
         <v>78</v>
@@ -10133,22 +10139,22 @@
         <v>124</v>
       </c>
       <c r="R3" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="S3" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="T3" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="T3" s="113" t="s">
+      <c r="U3" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="U3" s="112" t="s">
-        <v>273</v>
-      </c>
       <c r="V3" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="W3" s="112" t="s">
         <v>279</v>
-      </c>
-      <c r="W3" s="112" t="s">
-        <v>280</v>
       </c>
       <c r="X3" s="110" t="s">
         <v>109</v>
@@ -10157,7 +10163,7 @@
         <v>108</v>
       </c>
       <c r="Z3" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA3" s="110" t="s">
         <v>103</v>
@@ -10173,7 +10179,7 @@
       <c r="G4" s="56"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
@@ -10202,7 +10208,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>143</v>
@@ -10245,85 +10251,85 @@
     </row>
     <row r="6" spans="1:27" s="101" customFormat="1" ht="12">
       <c r="A6" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6" s="104" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="104" t="s">
-        <v>278</v>
-      </c>
       <c r="F6" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="H6" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="I6" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="J6" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="L6" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="M6" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="100" t="s">
+      <c r="N6" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="O6" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="N6" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="O6" s="100" t="s">
+      <c r="Q6" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="R6" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q6" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="R6" s="100" t="s">
+      <c r="S6" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="T6" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="S6" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="T6" s="97" t="s">
+      <c r="U6" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="U6" s="97" t="s">
+      <c r="V6" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="W6" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="X6" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="V6" s="97" t="s">
-        <v>281</v>
-      </c>
-      <c r="W6" s="97" t="s">
-        <v>282</v>
-      </c>
-      <c r="X6" s="100" t="s">
+      <c r="Y6" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="Y6" s="100" t="s">
+      <c r="Z6" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="Z6" s="100" t="s">
+      <c r="AA6" s="100" t="s">
         <v>258</v>
-      </c>
-      <c r="AA6" s="100" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="80" customFormat="1" ht="24">
@@ -10343,25 +10349,25 @@
         <v>40909</v>
       </c>
       <c r="F7" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="H7" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I7" s="83">
         <v>7005</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K7" s="78">
         <v>801</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M7" s="71" t="s">
         <v>42</v>
@@ -10375,16 +10381,16 @@
       <c r="P7" s="71"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S7" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U7" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V7" s="71">
         <v>1</v>
@@ -10414,23 +10420,23 @@
         <v>41639</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="83">
         <v>7006</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K8" s="78">
         <v>801</v>
       </c>
       <c r="L8" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="71" t="s">
         <v>42</v>
@@ -10444,16 +10450,16 @@
       <c r="P8" s="71"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S8" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S8" s="71" t="s">
+      <c r="T8" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="79" t="s">
+      <c r="U8" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U8" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V8" s="71">
         <v>1</v>
@@ -10481,23 +10487,23 @@
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="78"/>
       <c r="H9" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="83">
         <v>7006</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K9" s="78">
         <v>801</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M9" s="71" t="s">
         <v>42</v>
@@ -10511,16 +10517,16 @@
       <c r="P9" s="71"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S9" s="71" t="s">
+      <c r="T9" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="79" t="s">
+      <c r="U9" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U9" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V9" s="71">
         <v>1</v>
@@ -10550,25 +10556,25 @@
         <v>40909</v>
       </c>
       <c r="F10" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="H10" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H10" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I10" s="83">
         <v>7005</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="78">
         <v>801</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M10" s="71" t="s">
         <v>42</v>
@@ -10582,16 +10588,16 @@
       <c r="P10" s="71"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S10" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U10" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V10" s="71">
         <v>1</v>
@@ -10621,23 +10627,23 @@
         <v>41639</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="83">
         <v>7006</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K11" s="78">
         <v>801</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M11" s="71" t="s">
         <v>42</v>
@@ -10651,16 +10657,16 @@
       <c r="P11" s="71"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S11" s="71" t="s">
+      <c r="T11" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T11" s="79" t="s">
+      <c r="U11" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U11" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V11" s="71">
         <v>1</v>
@@ -10688,23 +10694,23 @@
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="78"/>
       <c r="H12" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="83">
         <v>7006</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K12" s="78">
         <v>801</v>
       </c>
       <c r="L12" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12" s="71" t="s">
         <v>42</v>
@@ -10718,16 +10724,16 @@
       <c r="P12" s="71"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S12" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S12" s="71" t="s">
+      <c r="T12" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U12" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V12" s="71">
         <v>1</v>
@@ -10757,25 +10763,25 @@
         <v>40909</v>
       </c>
       <c r="F13" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="H13" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H13" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I13" s="83">
         <v>7005</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="78">
         <v>801</v>
       </c>
       <c r="L13" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M13" s="71" t="s">
         <v>42</v>
@@ -10789,16 +10795,16 @@
       <c r="P13" s="71"/>
       <c r="Q13" s="78"/>
       <c r="R13" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S13" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T13" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U13" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U13" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V13" s="71">
         <v>1</v>
@@ -10828,23 +10834,23 @@
         <v>41639</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="78"/>
       <c r="H14" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="83">
         <v>7006</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K14" s="78">
         <v>801</v>
       </c>
       <c r="L14" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M14" s="71" t="s">
         <v>42</v>
@@ -10858,16 +10864,16 @@
       <c r="P14" s="71"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S14" s="71" t="s">
+      <c r="T14" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T14" s="79" t="s">
+      <c r="U14" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U14" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V14" s="71">
         <v>1</v>
@@ -10895,23 +10901,23 @@
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="78"/>
       <c r="H15" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I15" s="83">
         <v>7006</v>
       </c>
       <c r="J15" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="78">
         <v>801</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M15" s="71" t="s">
         <v>42</v>
@@ -10925,16 +10931,16 @@
       <c r="P15" s="71"/>
       <c r="Q15" s="78"/>
       <c r="R15" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S15" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S15" s="71" t="s">
+      <c r="T15" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T15" s="79" t="s">
+      <c r="U15" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U15" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V15" s="71">
         <v>1</v>
@@ -10964,25 +10970,25 @@
         <v>40909</v>
       </c>
       <c r="F16" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="H16" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H16" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I16" s="83">
         <v>7005</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K16" s="78">
         <v>801</v>
       </c>
       <c r="L16" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M16" s="71" t="s">
         <v>42</v>
@@ -10996,16 +11002,16 @@
       <c r="P16" s="71"/>
       <c r="Q16" s="78"/>
       <c r="R16" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S16" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T16" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U16" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V16" s="71">
         <v>1</v>
@@ -11035,23 +11041,23 @@
         <v>41639</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="78"/>
       <c r="H17" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="83">
         <v>7006</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K17" s="78">
         <v>801</v>
       </c>
       <c r="L17" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M17" s="71" t="s">
         <v>42</v>
@@ -11065,16 +11071,16 @@
       <c r="P17" s="71"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S17" s="71" t="s">
+      <c r="T17" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T17" s="79" t="s">
+      <c r="U17" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U17" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V17" s="71">
         <v>1</v>
@@ -11102,23 +11108,23 @@
       </c>
       <c r="E18" s="78"/>
       <c r="F18" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="78"/>
       <c r="H18" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="83">
         <v>7006</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" s="78">
         <v>801</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M18" s="71" t="s">
         <v>42</v>
@@ -11132,16 +11138,16 @@
       <c r="P18" s="71"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S18" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S18" s="71" t="s">
+      <c r="T18" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T18" s="79" t="s">
+      <c r="U18" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U18" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V18" s="71">
         <v>1</v>
@@ -11171,25 +11177,25 @@
         <v>40909</v>
       </c>
       <c r="F19" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="H19" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I19" s="83">
         <v>7005</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K19" s="78">
         <v>801</v>
       </c>
       <c r="L19" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M19" s="71" t="s">
         <v>42</v>
@@ -11203,16 +11209,16 @@
       <c r="P19" s="71"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S19" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T19" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U19" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U19" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V19" s="71">
         <v>1</v>
@@ -11242,23 +11248,23 @@
         <v>41639</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="78"/>
       <c r="H20" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I20" s="83">
         <v>7006</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="78">
         <v>801</v>
       </c>
       <c r="L20" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M20" s="71" t="s">
         <v>42</v>
@@ -11272,16 +11278,16 @@
       <c r="P20" s="71"/>
       <c r="Q20" s="78"/>
       <c r="R20" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S20" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S20" s="71" t="s">
+      <c r="T20" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T20" s="79" t="s">
+      <c r="U20" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U20" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V20" s="71">
         <v>1</v>
@@ -11309,23 +11315,23 @@
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="78"/>
       <c r="H21" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="83">
         <v>7006</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K21" s="78">
         <v>801</v>
       </c>
       <c r="L21" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M21" s="71" t="s">
         <v>42</v>
@@ -11339,16 +11345,16 @@
       <c r="P21" s="71"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S21" s="71" t="s">
+      <c r="T21" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="79" t="s">
+      <c r="U21" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U21" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V21" s="71">
         <v>1</v>
@@ -11378,25 +11384,25 @@
         <v>40909</v>
       </c>
       <c r="F22" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="H22" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I22" s="83">
         <v>7005</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K22" s="78">
         <v>801</v>
       </c>
       <c r="L22" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M22" s="71" t="s">
         <v>42</v>
@@ -11410,16 +11416,16 @@
       <c r="P22" s="71"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S22" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T22" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U22" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V22" s="71">
         <v>1</v>
@@ -11449,23 +11455,23 @@
         <v>41639</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" s="78"/>
       <c r="H23" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I23" s="83">
         <v>7006</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K23" s="78">
         <v>801</v>
       </c>
       <c r="L23" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M23" s="71" t="s">
         <v>42</v>
@@ -11479,16 +11485,16 @@
       <c r="P23" s="71"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S23" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S23" s="71" t="s">
+      <c r="T23" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T23" s="79" t="s">
+      <c r="U23" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U23" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V23" s="71">
         <v>1</v>
@@ -11516,23 +11522,23 @@
       </c>
       <c r="E24" s="78"/>
       <c r="F24" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="78"/>
       <c r="H24" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="83">
         <v>7006</v>
       </c>
       <c r="J24" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K24" s="78">
         <v>801</v>
       </c>
       <c r="L24" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M24" s="71" t="s">
         <v>42</v>
@@ -11546,16 +11552,16 @@
       <c r="P24" s="71"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S24" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S24" s="71" t="s">
+      <c r="T24" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T24" s="79" t="s">
+      <c r="U24" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U24" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V24" s="71">
         <v>1</v>
@@ -11585,25 +11591,25 @@
         <v>40909</v>
       </c>
       <c r="F25" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="H25" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I25" s="83">
         <v>7005</v>
       </c>
       <c r="J25" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K25" s="78">
         <v>801</v>
       </c>
       <c r="L25" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M25" s="71" t="s">
         <v>42</v>
@@ -11617,16 +11623,16 @@
       <c r="P25" s="71"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S25" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T25" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U25" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U25" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V25" s="71">
         <v>1</v>
@@ -11656,23 +11662,23 @@
         <v>41639</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="78"/>
       <c r="H26" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I26" s="83">
         <v>7006</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K26" s="78">
         <v>801</v>
       </c>
       <c r="L26" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" s="71" t="s">
         <v>42</v>
@@ -11686,16 +11692,16 @@
       <c r="P26" s="71"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S26" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S26" s="71" t="s">
+      <c r="T26" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T26" s="79" t="s">
+      <c r="U26" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U26" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V26" s="71">
         <v>1</v>
@@ -11723,23 +11729,23 @@
       </c>
       <c r="E27" s="78"/>
       <c r="F27" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="78"/>
       <c r="H27" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="83">
         <v>7006</v>
       </c>
       <c r="J27" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K27" s="78">
         <v>801</v>
       </c>
       <c r="L27" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M27" s="71" t="s">
         <v>42</v>
@@ -11753,16 +11759,16 @@
       <c r="P27" s="71"/>
       <c r="Q27" s="78"/>
       <c r="R27" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S27" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S27" s="71" t="s">
+      <c r="T27" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T27" s="79" t="s">
+      <c r="U27" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U27" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V27" s="71">
         <v>1</v>
@@ -11792,25 +11798,25 @@
         <v>40909</v>
       </c>
       <c r="F28" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="H28" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I28" s="83">
         <v>7005</v>
       </c>
       <c r="J28" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K28" s="78">
         <v>801</v>
       </c>
       <c r="L28" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M28" s="71" t="s">
         <v>42</v>
@@ -11824,16 +11830,16 @@
       <c r="P28" s="71"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S28" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T28" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U28" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U28" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V28" s="71">
         <v>1</v>
@@ -11863,23 +11869,23 @@
         <v>41639</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29" s="78"/>
       <c r="H29" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="83">
         <v>7006</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K29" s="78">
         <v>801</v>
       </c>
       <c r="L29" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" s="71" t="s">
         <v>42</v>
@@ -11893,16 +11899,16 @@
       <c r="P29" s="71"/>
       <c r="Q29" s="78"/>
       <c r="R29" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S29" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S29" s="71" t="s">
+      <c r="T29" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="79" t="s">
+      <c r="U29" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U29" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V29" s="71">
         <v>1</v>
@@ -11930,23 +11936,23 @@
       </c>
       <c r="E30" s="78"/>
       <c r="F30" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G30" s="78"/>
       <c r="H30" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="83">
         <v>7006</v>
       </c>
       <c r="J30" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K30" s="78">
         <v>801</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M30" s="71" t="s">
         <v>42</v>
@@ -11960,16 +11966,16 @@
       <c r="P30" s="71"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S30" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S30" s="71" t="s">
+      <c r="T30" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T30" s="79" t="s">
+      <c r="U30" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U30" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V30" s="71">
         <v>1</v>
@@ -11999,25 +12005,25 @@
         <v>40909</v>
       </c>
       <c r="F31" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="H31" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I31" s="83">
         <v>7005</v>
       </c>
       <c r="J31" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K31" s="78">
         <v>801</v>
       </c>
       <c r="L31" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M31" s="71" t="s">
         <v>42</v>
@@ -12031,16 +12037,16 @@
       <c r="P31" s="71"/>
       <c r="Q31" s="78"/>
       <c r="R31" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S31" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T31" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U31" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U31" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V31" s="71">
         <v>1</v>
@@ -12070,23 +12076,23 @@
         <v>41639</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="78"/>
       <c r="H32" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="83">
         <v>7006</v>
       </c>
       <c r="J32" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K32" s="78">
         <v>801</v>
       </c>
       <c r="L32" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M32" s="71" t="s">
         <v>42</v>
@@ -12100,16 +12106,16 @@
       <c r="P32" s="71"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S32" s="71" t="s">
+      <c r="T32" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T32" s="79" t="s">
+      <c r="U32" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U32" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V32" s="71">
         <v>1</v>
@@ -12137,23 +12143,23 @@
       </c>
       <c r="E33" s="78"/>
       <c r="F33" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="78"/>
       <c r="H33" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="83">
         <v>7006</v>
       </c>
       <c r="J33" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K33" s="78">
         <v>801</v>
       </c>
       <c r="L33" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M33" s="71" t="s">
         <v>42</v>
@@ -12167,16 +12173,16 @@
       <c r="P33" s="71"/>
       <c r="Q33" s="78"/>
       <c r="R33" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S33" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S33" s="71" t="s">
+      <c r="T33" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T33" s="79" t="s">
+      <c r="U33" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U33" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V33" s="71">
         <v>1</v>
@@ -12206,25 +12212,25 @@
         <v>40909</v>
       </c>
       <c r="F34" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="H34" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="H34" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="I34" s="83">
         <v>7005</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K34" s="78">
         <v>801</v>
       </c>
       <c r="L34" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M34" s="71" t="s">
         <v>42</v>
@@ -12238,16 +12244,16 @@
       <c r="P34" s="71"/>
       <c r="Q34" s="78"/>
       <c r="R34" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S34" s="71" t="s">
         <v>12</v>
       </c>
       <c r="T34" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="U34" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U34" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V34" s="71">
         <v>1</v>
@@ -12277,23 +12283,23 @@
         <v>41639</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="83">
         <v>7006</v>
       </c>
       <c r="J35" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" s="78">
         <v>801</v>
       </c>
       <c r="L35" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M35" s="71" t="s">
         <v>42</v>
@@ -12307,16 +12313,16 @@
       <c r="P35" s="71"/>
       <c r="Q35" s="78"/>
       <c r="R35" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S35" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S35" s="71" t="s">
+      <c r="T35" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T35" s="79" t="s">
+      <c r="U35" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U35" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V35" s="71">
         <v>1</v>
@@ -12344,23 +12350,23 @@
       </c>
       <c r="E36" s="78"/>
       <c r="F36" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="78"/>
       <c r="H36" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I36" s="83">
         <v>7006</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" s="78">
         <v>801</v>
       </c>
       <c r="L36" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M36" s="71" t="s">
         <v>42</v>
@@ -12374,16 +12380,16 @@
       <c r="P36" s="71"/>
       <c r="Q36" s="78"/>
       <c r="R36" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S36" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="S36" s="71" t="s">
+      <c r="T36" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="T36" s="79" t="s">
+      <c r="U36" s="71" t="s">
         <v>186</v>
-      </c>
-      <c r="U36" s="71" t="s">
-        <v>187</v>
       </c>
       <c r="V36" s="71">
         <v>1</v>
@@ -12511,7 +12517,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>143</v>
@@ -12527,31 +12533,31 @@
     </row>
     <row r="6" spans="1:9" s="101" customFormat="1" ht="12">
       <c r="A6" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="E6" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="104" t="s">
+      <c r="F6" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="G6" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="100" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" s="100" t="s">
+      <c r="I6" s="100" t="s">
         <v>286</v>
-      </c>
-      <c r="I6" s="100" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="88" customFormat="1" ht="24">
@@ -12568,16 +12574,16 @@
         <v>40909</v>
       </c>
       <c r="E7" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="78" t="s">
-        <v>177</v>
-      </c>
       <c r="G7" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="78" t="s">
         <v>188</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>189</v>
       </c>
       <c r="I7" s="78">
         <v>50000</v>
@@ -12597,14 +12603,14 @@
         <v>41639</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="78" t="s">
         <v>188</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>189</v>
       </c>
       <c r="I8" s="78">
         <v>100000</v>
@@ -12622,14 +12628,14 @@
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="78" t="s">
         <v>188</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>189</v>
       </c>
       <c r="I9" s="78">
         <v>100000</v>

--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMEmployeesV1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4234" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="371">
   <si>
     <t>Regular or Temporary</t>
   </si>
@@ -3218,7 +3218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -3447,9 +3449,7 @@
       <c r="T5" s="96"/>
     </row>
     <row r="6" spans="1:21" s="68" customFormat="1" ht="12">
-      <c r="A6" s="70" t="s">
-        <v>157</v>
-      </c>
+      <c r="A6" s="70"/>
       <c r="B6" s="72">
         <v>40350</v>
       </c>
@@ -3503,9 +3503,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="70" t="s">
-        <v>157</v>
-      </c>
+      <c r="A7" s="70"/>
       <c r="B7" s="72">
         <v>40350</v>
       </c>
@@ -3560,9 +3558,7 @@
       <c r="U7" s="94"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="70" t="s">
-        <v>157</v>
-      </c>
+      <c r="A8" s="70"/>
       <c r="B8" s="72">
         <v>40350</v>
       </c>
@@ -3617,9 +3613,7 @@
       <c r="U8" s="94"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="70" t="s">
-        <v>157</v>
-      </c>
+      <c r="A9" s="70"/>
       <c r="B9" s="72">
         <v>40350</v>
       </c>
